--- a/docs/documentation/Schriftliche Arbeit Aufgabenverteilung.xlsx
+++ b/docs/documentation/Schriftliche Arbeit Aufgabenverteilung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\FHDW\Semester 5\fluffy-potato\docs\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="10580"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Titelblatt</t>
   </si>
@@ -141,6 +136,12 @@
   </si>
   <si>
     <t>Jeder seine Hilfsmittel</t>
+  </si>
+  <si>
+    <t>Fertig</t>
+  </si>
+  <si>
+    <t>Fertig (jan fragen wegen storage klasse)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,20 +459,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -479,7 +482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -487,7 +490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -495,7 +498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -503,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -511,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -519,7 +522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -527,7 +530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -535,7 +538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -543,7 +546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -551,7 +554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -559,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -567,23 +570,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -591,12 +600,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -604,7 +613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -612,7 +621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -620,7 +629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -628,12 +637,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -641,7 +650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -649,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -657,7 +666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -665,7 +674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -673,7 +682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>24</v>
       </c>
@@ -681,7 +690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -689,7 +698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -697,12 +706,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>28</v>
       </c>

--- a/docs/documentation/Schriftliche Arbeit Aufgabenverteilung.xlsx
+++ b/docs/documentation/Schriftliche Arbeit Aufgabenverteilung.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\FHDW\Semester 5\fluffy-potato\docs\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="10580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="10575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Checkliste Projektanforderungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>Titelblatt</t>
   </si>
@@ -142,6 +148,162 @@
   </si>
   <si>
     <t>Fertig (jan fragen wegen storage klasse)</t>
+  </si>
+  <si>
+    <t>Anforderungskatgorie</t>
+  </si>
+  <si>
+    <t>Anforderung</t>
+  </si>
+  <si>
+    <t>durch?</t>
+  </si>
+  <si>
+    <t>erfüllt?</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t>java als Programmirsprache</t>
+  </si>
+  <si>
+    <t>Betribssystem: Android</t>
+  </si>
+  <si>
+    <t>Gerät: Acer A 100</t>
+  </si>
+  <si>
+    <t>Useransichten</t>
+  </si>
+  <si>
+    <t>Karteiwahl</t>
+  </si>
+  <si>
+    <t>Challenges mit Antwortmöglichkiten</t>
+  </si>
+  <si>
+    <t>Challenges mit Eingabemöglichkeit</t>
+  </si>
+  <si>
+    <t>Challengs mit Selbsteinschätzung</t>
+  </si>
+  <si>
+    <t>Einstellen der Zeitspannen</t>
+  </si>
+  <si>
+    <t>Anlegen eines neuen Users</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Feedback mit allen richtigen Lösungen</t>
+  </si>
+  <si>
+    <t>Feedbackgabe mit "ich war richtig" und "ich lag falsch"</t>
+  </si>
+  <si>
+    <t>Fragen und Zeitspannen</t>
+  </si>
+  <si>
+    <t>Fragen sind über XML-File verändrbar</t>
+  </si>
+  <si>
+    <t>Zitspannn sind in App einstellbar</t>
+  </si>
+  <si>
+    <t>Challenges werdn bei richtiger Beantwortung eine Klasse witer gesteckt, maximal in Klasse 6</t>
+  </si>
+  <si>
+    <t>Bei falscher Beantwortung wird Challenge in die Klasse x-1 gesteckt, mindestens aber in Klasse 1</t>
+  </si>
+  <si>
+    <t>Dabei muss Zeitspanne x kleiner sein als Zeitspanne x+1; 0&lt;x&lt;7</t>
+  </si>
+  <si>
+    <t>Aktionsmöglichkeiten während dr Ausführung</t>
+  </si>
+  <si>
+    <t>Nutzerwchsel</t>
+  </si>
+  <si>
+    <t>Karteiwechsel</t>
+  </si>
+  <si>
+    <t>Abbruch</t>
+  </si>
+  <si>
+    <t>Statistik über Bearbeitungsstatus der Kartei</t>
+  </si>
+  <si>
+    <t>Statistik über Bearbeitungsstatus aller Karteien</t>
+  </si>
+  <si>
+    <t>Sondrfall: Keine Kartei vorhanden</t>
+  </si>
+  <si>
+    <t>Sondrfall: Keine Challngs in Kartei</t>
+  </si>
+  <si>
+    <t>Nutzerwahl über Auswahlalternativen</t>
+  </si>
+  <si>
+    <t>Softwarentwurfstchnik: SCRUM</t>
+  </si>
+  <si>
+    <t>Abgtenzung ds Datnmodells von der Anwendung</t>
+  </si>
+  <si>
+    <t>Datnmodul auch als rein Java-Anwendung nutzbar</t>
+  </si>
+  <si>
+    <t>Datnmodul austauschbar übr Schnittstllenanbindung</t>
+  </si>
+  <si>
+    <t>Klare Modularisierung</t>
+  </si>
+  <si>
+    <t>Struktur wie in Vorlesung vorgestellt</t>
+  </si>
+  <si>
+    <t>Instanzvariablen privat odr protected</t>
+  </si>
+  <si>
+    <t>keine anonymen klassn odr innr Klassen</t>
+  </si>
+  <si>
+    <t>Nur frei verfügbare Bibliotheken einbauen</t>
+  </si>
+  <si>
+    <t>Portrait- und Landscapemodus möglich</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>gedruckte Teamversion am 23.03.2016</t>
+  </si>
+  <si>
+    <t>ein Datenträger (CD) mit allen Seminararbiten und Projekt am 23.03.2016</t>
+  </si>
+  <si>
+    <t>Projekt in Android Studio importirbar</t>
+  </si>
+  <si>
+    <t>Dokumntation</t>
+  </si>
+  <si>
+    <t>Zuständigkeiten mit Namen in Arbeit markieren</t>
+  </si>
+  <si>
+    <t>Quellen und Hilfsmittel anlegen</t>
+  </si>
+  <si>
+    <t>Tools und Programme angben mit Zweck</t>
+  </si>
+  <si>
+    <t>Quelltextkommentare in englisch</t>
   </si>
 </sst>
 </file>
@@ -157,12 +319,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,8 +345,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -451,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,20 +630,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -490,7 +659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -498,7 +667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -506,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -514,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -522,7 +691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -530,7 +699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -538,7 +707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -546,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -554,7 +723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -562,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -570,7 +739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -581,7 +750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -592,7 +761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -600,12 +769,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -613,7 +782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -621,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -629,7 +798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -637,12 +806,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -650,7 +819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -658,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -666,7 +835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -674,7 +843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -682,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>24</v>
       </c>
@@ -690,7 +859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -698,7 +867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -706,17 +875,287 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>28</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/docs/documentation/Schriftliche Arbeit Aufgabenverteilung.xlsx
+++ b/docs/documentation/Schriftliche Arbeit Aufgabenverteilung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\FHDW\Semester 5\fluffy-potato\docs\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="10575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="10580"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>Titelblatt</t>
   </si>
@@ -304,6 +299,9 @@
   </si>
   <si>
     <t>Quelltextkommentare in englisch</t>
+  </si>
+  <si>
+    <t>in Arbeit (df)</t>
   </si>
 </sst>
 </file>
@@ -620,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,20 +628,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -651,7 +649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -659,7 +657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -667,7 +665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -683,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -691,7 +689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -699,7 +697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -707,7 +705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -715,15 +713,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -731,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -739,7 +740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -750,7 +751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -761,7 +762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -769,12 +770,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -782,7 +783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>18</v>
       </c>
@@ -790,7 +791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -798,7 +799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -806,12 +807,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -819,7 +820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -827,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -835,7 +836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -843,7 +844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -851,7 +852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>24</v>
       </c>
@@ -859,7 +860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -867,7 +868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -875,12 +876,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -897,18 +898,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="57.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -922,207 +923,207 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -1130,17 +1131,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1148,12 +1149,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>92</v>
       </c>
